--- a/macbook.xlsx
+++ b/macbook.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="436">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1356,9 +1356,6 @@
     <t>duda falando que o macbook é barato, sim, quase 10mil, vou vender minha casa ali e já volto.</t>
   </si>
   <si>
-    <t>@amaliciamarques cara ... esses dias vi uma mulher abrir um macbook na @cptm_oficial  isso que é coragem!!</t>
-  </si>
-  <si>
     <t>rt @keison_alh: @daniliraa eu já não sou tão fã, prefiro android, mas adoraria ter um macbook, porém preciso vender minha casa pra poder co…</t>
   </si>
   <si>
@@ -1436,7 +1433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1455,6 +1452,29 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1492,18 +1512,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1805,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -1819,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1827,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1835,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1843,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1851,7 +1904,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1859,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1867,7 +1920,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1875,7 +1928,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1883,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1891,7 +1944,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1899,7 +1952,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1907,7 +1960,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1915,7 +1968,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1923,7 +1976,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1931,7 +1984,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1939,7 +1992,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1947,7 +2000,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1955,7 +2008,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1963,7 +2016,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1971,7 +2024,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1979,7 +2032,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1987,7 +2040,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1995,7 +2048,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2011,7 +2064,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2019,7 +2072,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2027,7 +2080,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2035,7 +2088,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2043,7 +2096,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2051,7 +2104,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2059,7 +2112,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2067,7 +2120,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2083,7 +2136,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2091,7 +2144,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2099,7 +2152,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2107,7 +2160,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2115,7 +2168,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2131,7 +2184,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2139,7 +2192,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2147,7 +2200,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2155,7 +2208,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2163,7 +2216,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2171,7 +2224,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2179,7 +2232,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2187,7 +2240,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2195,7 +2248,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2203,7 +2256,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2211,7 +2264,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2219,7 +2272,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2227,7 +2280,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2243,7 +2296,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2251,7 +2304,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2259,7 +2312,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2275,7 +2328,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2283,7 +2336,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2315,7 +2368,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2323,7 +2376,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2331,7 +2384,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -2339,7 +2392,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -2347,7 +2400,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -2363,7 +2416,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -2371,7 +2424,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -2379,7 +2432,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -2387,7 +2440,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -2395,7 +2448,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -2403,7 +2456,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -2411,7 +2464,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -2419,7 +2472,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2427,7 +2480,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2443,7 +2496,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2475,7 +2528,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -2491,7 +2544,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -2507,7 +2560,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2515,7 +2568,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -2523,7 +2576,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -2539,7 +2592,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -2547,7 +2600,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -2555,7 +2608,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -2563,7 +2616,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2571,7 +2624,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -2587,7 +2640,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -2595,7 +2648,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -2603,7 +2656,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -2611,7 +2664,7 @@
         <v>74</v>
       </c>
       <c r="B100" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -2635,7 +2688,7 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -2643,7 +2696,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -2651,7 +2704,7 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -2659,7 +2712,7 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -2667,7 +2720,7 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -2675,15 +2728,15 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B109" t="s">
-        <v>435</v>
+      <c r="B109" s="4" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -2707,7 +2760,7 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -2715,7 +2768,7 @@
         <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -2723,7 +2776,7 @@
         <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -2731,7 +2784,7 @@
         <v>26</v>
       </c>
       <c r="B115" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -2739,7 +2792,7 @@
         <v>110</v>
       </c>
       <c r="B116" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -2763,7 +2816,7 @@
         <v>113</v>
       </c>
       <c r="B119" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -2771,7 +2824,7 @@
         <v>87</v>
       </c>
       <c r="B120" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -2779,7 +2832,7 @@
         <v>114</v>
       </c>
       <c r="B121" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -2787,7 +2840,7 @@
         <v>115</v>
       </c>
       <c r="B122" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -2795,7 +2848,7 @@
         <v>116</v>
       </c>
       <c r="B123" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -2803,7 +2856,7 @@
         <v>117</v>
       </c>
       <c r="B124" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -2811,7 +2864,7 @@
         <v>118</v>
       </c>
       <c r="B125" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -2819,7 +2872,7 @@
         <v>119</v>
       </c>
       <c r="B126" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -2827,7 +2880,7 @@
         <v>120</v>
       </c>
       <c r="B127" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -2835,7 +2888,7 @@
         <v>121</v>
       </c>
       <c r="B128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -2843,7 +2896,7 @@
         <v>122</v>
       </c>
       <c r="B129" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2851,7 +2904,7 @@
         <v>123</v>
       </c>
       <c r="B130" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -2859,7 +2912,7 @@
         <v>124</v>
       </c>
       <c r="B131" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -2867,7 +2920,7 @@
         <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -2875,7 +2928,7 @@
         <v>125</v>
       </c>
       <c r="B133" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -2883,7 +2936,7 @@
         <v>126</v>
       </c>
       <c r="B134" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -2891,7 +2944,7 @@
         <v>127</v>
       </c>
       <c r="B135" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -2899,7 +2952,7 @@
         <v>128</v>
       </c>
       <c r="B136" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -2907,7 +2960,7 @@
         <v>129</v>
       </c>
       <c r="B137" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -2915,7 +2968,7 @@
         <v>130</v>
       </c>
       <c r="B138" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -2923,7 +2976,7 @@
         <v>26</v>
       </c>
       <c r="B139" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -2931,7 +2984,7 @@
         <v>131</v>
       </c>
       <c r="B140" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -2939,7 +2992,7 @@
         <v>132</v>
       </c>
       <c r="B141" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -2947,7 +3000,7 @@
         <v>133</v>
       </c>
       <c r="B142" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -2955,7 +3008,7 @@
         <v>134</v>
       </c>
       <c r="B143" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -2963,7 +3016,7 @@
         <v>135</v>
       </c>
       <c r="B144" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -2971,7 +3024,7 @@
         <v>87</v>
       </c>
       <c r="B145" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -2979,7 +3032,7 @@
         <v>87</v>
       </c>
       <c r="B146" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -2987,7 +3040,7 @@
         <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -2995,7 +3048,7 @@
         <v>137</v>
       </c>
       <c r="B148" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -3003,7 +3056,7 @@
         <v>138</v>
       </c>
       <c r="B149" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -3011,14 +3064,14 @@
         <v>139</v>
       </c>
       <c r="B150" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="4" t="s">
         <v>435</v>
       </c>
     </row>
@@ -3027,7 +3080,7 @@
         <v>26</v>
       </c>
       <c r="B152" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -3051,7 +3104,7 @@
         <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -3059,7 +3112,7 @@
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -3075,7 +3128,7 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -3083,7 +3136,7 @@
         <v>146</v>
       </c>
       <c r="B159" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -3091,7 +3144,7 @@
         <v>147</v>
       </c>
       <c r="B160" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -3099,7 +3152,7 @@
         <v>83</v>
       </c>
       <c r="B161" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -3107,7 +3160,7 @@
         <v>148</v>
       </c>
       <c r="B162" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -3115,7 +3168,7 @@
         <v>149</v>
       </c>
       <c r="B163" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -3123,7 +3176,7 @@
         <v>150</v>
       </c>
       <c r="B164" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -3131,7 +3184,7 @@
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -3139,7 +3192,7 @@
         <v>151</v>
       </c>
       <c r="B166" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -3147,7 +3200,7 @@
         <v>152</v>
       </c>
       <c r="B167" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -3155,7 +3208,7 @@
         <v>153</v>
       </c>
       <c r="B168" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -3163,7 +3216,7 @@
         <v>154</v>
       </c>
       <c r="B169" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -3171,7 +3224,7 @@
         <v>155</v>
       </c>
       <c r="B170" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -3179,7 +3232,7 @@
         <v>156</v>
       </c>
       <c r="B171" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -3187,7 +3240,7 @@
         <v>157</v>
       </c>
       <c r="B172" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -3195,7 +3248,7 @@
         <v>158</v>
       </c>
       <c r="B173" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -3203,7 +3256,7 @@
         <v>159</v>
       </c>
       <c r="B174" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -3211,7 +3264,7 @@
         <v>160</v>
       </c>
       <c r="B175" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -3219,7 +3272,7 @@
         <v>161</v>
       </c>
       <c r="B176" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -3227,7 +3280,7 @@
         <v>35</v>
       </c>
       <c r="B177" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -3243,7 +3296,7 @@
         <v>163</v>
       </c>
       <c r="B179" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -3251,7 +3304,7 @@
         <v>164</v>
       </c>
       <c r="B180" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -3259,7 +3312,7 @@
         <v>165</v>
       </c>
       <c r="B181" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -3267,7 +3320,7 @@
         <v>166</v>
       </c>
       <c r="B182" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -3275,7 +3328,7 @@
         <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -3291,7 +3344,7 @@
         <v>168</v>
       </c>
       <c r="B185" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -3307,7 +3360,7 @@
         <v>170</v>
       </c>
       <c r="B187" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -3315,7 +3368,7 @@
         <v>171</v>
       </c>
       <c r="B188" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -3323,7 +3376,7 @@
         <v>172</v>
       </c>
       <c r="B189" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -3331,7 +3384,7 @@
         <v>173</v>
       </c>
       <c r="B190" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -3347,7 +3400,7 @@
         <v>8</v>
       </c>
       <c r="B192" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -3355,7 +3408,7 @@
         <v>96</v>
       </c>
       <c r="B193" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -3363,7 +3416,7 @@
         <v>175</v>
       </c>
       <c r="B194" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -3371,7 +3424,7 @@
         <v>176</v>
       </c>
       <c r="B195" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -3379,7 +3432,7 @@
         <v>177</v>
       </c>
       <c r="B196" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -3387,7 +3440,7 @@
         <v>35</v>
       </c>
       <c r="B197" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -3395,7 +3448,7 @@
         <v>178</v>
       </c>
       <c r="B198" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -3403,7 +3456,7 @@
         <v>179</v>
       </c>
       <c r="B199" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -3411,7 +3464,7 @@
         <v>180</v>
       </c>
       <c r="B200" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -3419,7 +3472,7 @@
         <v>181</v>
       </c>
       <c r="B201" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -3427,7 +3480,7 @@
         <v>182</v>
       </c>
       <c r="B202" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -3435,7 +3488,7 @@
         <v>183</v>
       </c>
       <c r="B203" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -3451,7 +3504,7 @@
         <v>26</v>
       </c>
       <c r="B205" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -3459,7 +3512,7 @@
         <v>185</v>
       </c>
       <c r="B206" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -3467,7 +3520,7 @@
         <v>26</v>
       </c>
       <c r="B207" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -3475,7 +3528,7 @@
         <v>186</v>
       </c>
       <c r="B208" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -3483,7 +3536,7 @@
         <v>187</v>
       </c>
       <c r="B209" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -3491,7 +3544,7 @@
         <v>188</v>
       </c>
       <c r="B210" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -3507,7 +3560,7 @@
         <v>190</v>
       </c>
       <c r="B212" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -3515,7 +3568,7 @@
         <v>191</v>
       </c>
       <c r="B213" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -3523,7 +3576,7 @@
         <v>192</v>
       </c>
       <c r="B214" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -3531,7 +3584,7 @@
         <v>193</v>
       </c>
       <c r="B215" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -3555,7 +3608,7 @@
         <v>196</v>
       </c>
       <c r="B218" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -3587,7 +3640,7 @@
         <v>200</v>
       </c>
       <c r="B222" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -3595,7 +3648,7 @@
         <v>201</v>
       </c>
       <c r="B223" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -3603,7 +3656,7 @@
         <v>202</v>
       </c>
       <c r="B224" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -3611,7 +3664,7 @@
         <v>203</v>
       </c>
       <c r="B225" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -3619,7 +3672,7 @@
         <v>204</v>
       </c>
       <c r="B226" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -3627,7 +3680,7 @@
         <v>35</v>
       </c>
       <c r="B227" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -3635,7 +3688,7 @@
         <v>205</v>
       </c>
       <c r="B228" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -3643,7 +3696,7 @@
         <v>206</v>
       </c>
       <c r="B229" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -3651,7 +3704,7 @@
         <v>26</v>
       </c>
       <c r="B230" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -3667,7 +3720,7 @@
         <v>26</v>
       </c>
       <c r="B232" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -3675,7 +3728,7 @@
         <v>26</v>
       </c>
       <c r="B233" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -3683,7 +3736,7 @@
         <v>208</v>
       </c>
       <c r="B234" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -3707,7 +3760,7 @@
         <v>211</v>
       </c>
       <c r="B237" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -3715,7 +3768,7 @@
         <v>212</v>
       </c>
       <c r="B238" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -3723,7 +3776,7 @@
         <v>26</v>
       </c>
       <c r="B239" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -3731,7 +3784,7 @@
         <v>96</v>
       </c>
       <c r="B240" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -3747,7 +3800,7 @@
         <v>214</v>
       </c>
       <c r="B242" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -3763,7 +3816,7 @@
         <v>216</v>
       </c>
       <c r="B244" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -3771,20 +3824,23 @@
         <v>217</v>
       </c>
       <c r="B245" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="B246" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B247" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -3792,7 +3848,7 @@
         <v>26</v>
       </c>
       <c r="B248" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -3800,7 +3856,7 @@
         <v>220</v>
       </c>
       <c r="B249" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -3816,7 +3872,7 @@
         <v>222</v>
       </c>
       <c r="B251" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -3824,7 +3880,7 @@
         <v>223</v>
       </c>
       <c r="B252" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -3840,7 +3896,7 @@
         <v>26</v>
       </c>
       <c r="B254" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -3848,7 +3904,7 @@
         <v>225</v>
       </c>
       <c r="B255" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -3856,7 +3912,7 @@
         <v>26</v>
       </c>
       <c r="B256" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -3864,7 +3920,7 @@
         <v>226</v>
       </c>
       <c r="B257" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -3872,7 +3928,7 @@
         <v>35</v>
       </c>
       <c r="B258" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -3888,7 +3944,7 @@
         <v>228</v>
       </c>
       <c r="B260" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -3896,7 +3952,7 @@
         <v>229</v>
       </c>
       <c r="B261" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -3904,7 +3960,7 @@
         <v>230</v>
       </c>
       <c r="B262" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -3912,7 +3968,7 @@
         <v>231</v>
       </c>
       <c r="B263" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -3936,7 +3992,7 @@
         <v>234</v>
       </c>
       <c r="B266" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -3944,7 +4000,7 @@
         <v>235</v>
       </c>
       <c r="B267" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -3960,7 +4016,7 @@
         <v>237</v>
       </c>
       <c r="B269" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -3968,7 +4024,7 @@
         <v>238</v>
       </c>
       <c r="B270" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -3976,7 +4032,7 @@
         <v>239</v>
       </c>
       <c r="B271" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -3984,7 +4040,7 @@
         <v>240</v>
       </c>
       <c r="B272" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -4000,7 +4056,7 @@
         <v>242</v>
       </c>
       <c r="B274" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -4008,7 +4064,7 @@
         <v>243</v>
       </c>
       <c r="B275" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -4016,7 +4072,7 @@
         <v>244</v>
       </c>
       <c r="B276" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -4024,7 +4080,7 @@
         <v>245</v>
       </c>
       <c r="B277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -4032,7 +4088,7 @@
         <v>83</v>
       </c>
       <c r="B278" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -4056,7 +4112,7 @@
         <v>248</v>
       </c>
       <c r="B281" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -4064,7 +4120,7 @@
         <v>249</v>
       </c>
       <c r="B282" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -4072,7 +4128,7 @@
         <v>250</v>
       </c>
       <c r="B283" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -4080,7 +4136,7 @@
         <v>251</v>
       </c>
       <c r="B284" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -4088,7 +4144,7 @@
         <v>252</v>
       </c>
       <c r="B285" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -4096,7 +4152,7 @@
         <v>253</v>
       </c>
       <c r="B286" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -4104,7 +4160,7 @@
         <v>254</v>
       </c>
       <c r="B287" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -4112,7 +4168,7 @@
         <v>255</v>
       </c>
       <c r="B288" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -4120,7 +4176,7 @@
         <v>256</v>
       </c>
       <c r="B289" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -4128,7 +4184,7 @@
         <v>26</v>
       </c>
       <c r="B290" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -4136,7 +4192,7 @@
         <v>257</v>
       </c>
       <c r="B291" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -4144,7 +4200,7 @@
         <v>86</v>
       </c>
       <c r="B292" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -4152,7 +4208,7 @@
         <v>258</v>
       </c>
       <c r="B293" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -4168,7 +4224,7 @@
         <v>74</v>
       </c>
       <c r="B295" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -4176,7 +4232,7 @@
         <v>260</v>
       </c>
       <c r="B296" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -4184,7 +4240,7 @@
         <v>261</v>
       </c>
       <c r="B297" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -4192,7 +4248,7 @@
         <v>262</v>
       </c>
       <c r="B298" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -4200,7 +4256,7 @@
         <v>263</v>
       </c>
       <c r="B299" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -4208,7 +4264,7 @@
         <v>264</v>
       </c>
       <c r="B300" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -4216,7 +4272,7 @@
         <v>265</v>
       </c>
       <c r="B301" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -4228,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -4242,7 +4298,7 @@
         <v>266</v>
       </c>
       <c r="B1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4258,7 +4314,7 @@
         <v>268</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4266,7 +4322,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4282,7 +4338,7 @@
         <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4314,7 +4370,7 @@
         <v>274</v>
       </c>
       <c r="B10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4330,7 +4386,7 @@
         <v>276</v>
       </c>
       <c r="B12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4338,7 +4394,7 @@
         <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4346,7 +4402,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4378,7 +4434,7 @@
         <v>280</v>
       </c>
       <c r="B18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4386,7 +4442,7 @@
         <v>281</v>
       </c>
       <c r="B19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4394,7 +4450,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -4410,7 +4466,7 @@
         <v>283</v>
       </c>
       <c r="B22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -4418,7 +4474,7 @@
         <v>284</v>
       </c>
       <c r="B23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -4426,7 +4482,7 @@
         <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -4434,7 +4490,7 @@
         <v>285</v>
       </c>
       <c r="B25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4442,7 +4498,7 @@
         <v>286</v>
       </c>
       <c r="B26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -4450,7 +4506,7 @@
         <v>287</v>
       </c>
       <c r="B27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -4458,7 +4514,7 @@
         <v>288</v>
       </c>
       <c r="B28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -4466,7 +4522,7 @@
         <v>289</v>
       </c>
       <c r="B29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -4474,7 +4530,7 @@
         <v>290</v>
       </c>
       <c r="B30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -4482,7 +4538,7 @@
         <v>291</v>
       </c>
       <c r="B31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -4490,7 +4546,7 @@
         <v>292</v>
       </c>
       <c r="B32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4498,7 +4554,7 @@
         <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -4506,7 +4562,7 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -4514,7 +4570,7 @@
         <v>293</v>
       </c>
       <c r="B35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -4522,7 +4578,7 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -4530,7 +4586,7 @@
         <v>294</v>
       </c>
       <c r="B37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -4538,7 +4594,7 @@
         <v>295</v>
       </c>
       <c r="B38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -4546,7 +4602,7 @@
         <v>296</v>
       </c>
       <c r="B39" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -4554,7 +4610,7 @@
         <v>297</v>
       </c>
       <c r="B40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -4562,7 +4618,7 @@
         <v>298</v>
       </c>
       <c r="B41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -4570,7 +4626,7 @@
         <v>299</v>
       </c>
       <c r="B42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -4586,7 +4642,7 @@
         <v>301</v>
       </c>
       <c r="B44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -4594,7 +4650,7 @@
         <v>302</v>
       </c>
       <c r="B45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -4610,7 +4666,7 @@
         <v>304</v>
       </c>
       <c r="B47" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -4618,7 +4674,7 @@
         <v>305</v>
       </c>
       <c r="B48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -4634,7 +4690,7 @@
         <v>307</v>
       </c>
       <c r="B50" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -4650,7 +4706,7 @@
         <v>309</v>
       </c>
       <c r="B52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -4658,7 +4714,7 @@
         <v>310</v>
       </c>
       <c r="B53" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -4666,7 +4722,7 @@
         <v>311</v>
       </c>
       <c r="B54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -4674,7 +4730,7 @@
         <v>312</v>
       </c>
       <c r="B55" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -4690,7 +4746,7 @@
         <v>314</v>
       </c>
       <c r="B57" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -4698,7 +4754,7 @@
         <v>315</v>
       </c>
       <c r="B58" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -4706,7 +4762,7 @@
         <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -4714,7 +4770,7 @@
         <v>316</v>
       </c>
       <c r="B60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -4722,7 +4778,7 @@
         <v>317</v>
       </c>
       <c r="B61" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -4730,7 +4786,7 @@
         <v>318</v>
       </c>
       <c r="B62" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -4746,7 +4802,7 @@
         <v>320</v>
       </c>
       <c r="B64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -4754,7 +4810,7 @@
         <v>321</v>
       </c>
       <c r="B65" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -4770,7 +4826,7 @@
         <v>323</v>
       </c>
       <c r="B67" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -4778,7 +4834,7 @@
         <v>324</v>
       </c>
       <c r="B68" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -4786,7 +4842,7 @@
         <v>325</v>
       </c>
       <c r="B69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -4794,7 +4850,7 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -4802,7 +4858,7 @@
         <v>326</v>
       </c>
       <c r="B71" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -4818,7 +4874,7 @@
         <v>328</v>
       </c>
       <c r="B73" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -4826,7 +4882,7 @@
         <v>329</v>
       </c>
       <c r="B74" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -4834,7 +4890,7 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -4842,7 +4898,7 @@
         <v>232</v>
       </c>
       <c r="B76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -4850,7 +4906,7 @@
         <v>330</v>
       </c>
       <c r="B77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -4858,7 +4914,7 @@
         <v>331</v>
       </c>
       <c r="B78" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -4866,7 +4922,7 @@
         <v>332</v>
       </c>
       <c r="B79" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -4874,7 +4930,7 @@
         <v>333</v>
       </c>
       <c r="B80" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -4882,7 +4938,7 @@
         <v>334</v>
       </c>
       <c r="B81" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -4890,7 +4946,7 @@
         <v>335</v>
       </c>
       <c r="B82" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -4898,7 +4954,7 @@
         <v>336</v>
       </c>
       <c r="B83" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -4906,7 +4962,7 @@
         <v>337</v>
       </c>
       <c r="B84" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -4914,7 +4970,7 @@
         <v>338</v>
       </c>
       <c r="B85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -4922,7 +4978,7 @@
         <v>339</v>
       </c>
       <c r="B86" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -4930,7 +4986,7 @@
         <v>340</v>
       </c>
       <c r="B87" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -4938,7 +4994,7 @@
         <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -4946,7 +5002,7 @@
         <v>341</v>
       </c>
       <c r="B89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -4954,7 +5010,7 @@
         <v>342</v>
       </c>
       <c r="B90" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -4962,7 +5018,7 @@
         <v>343</v>
       </c>
       <c r="B91" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -4970,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="B92" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -4986,7 +5042,7 @@
         <v>346</v>
       </c>
       <c r="B94" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -4994,7 +5050,7 @@
         <v>347</v>
       </c>
       <c r="B95" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -5002,7 +5058,7 @@
         <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -5018,7 +5074,7 @@
         <v>349</v>
       </c>
       <c r="B98" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -5026,7 +5082,7 @@
         <v>350</v>
       </c>
       <c r="B99" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -5034,7 +5090,7 @@
         <v>351</v>
       </c>
       <c r="B100" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -5042,7 +5098,7 @@
         <v>352</v>
       </c>
       <c r="B101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -5050,7 +5106,7 @@
         <v>353</v>
       </c>
       <c r="B102" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -5058,7 +5114,7 @@
         <v>354</v>
       </c>
       <c r="B103" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -5066,7 +5122,7 @@
         <v>355</v>
       </c>
       <c r="B104" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -5082,7 +5138,7 @@
         <v>357</v>
       </c>
       <c r="B106" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -5090,7 +5146,7 @@
         <v>358</v>
       </c>
       <c r="B107" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -5098,7 +5154,7 @@
         <v>359</v>
       </c>
       <c r="B108" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -5106,7 +5162,7 @@
         <v>360</v>
       </c>
       <c r="B109" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -5114,7 +5170,7 @@
         <v>361</v>
       </c>
       <c r="B110" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -5122,7 +5178,7 @@
         <v>362</v>
       </c>
       <c r="B111" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -5146,7 +5202,7 @@
         <v>365</v>
       </c>
       <c r="B114" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -5154,7 +5210,7 @@
         <v>366</v>
       </c>
       <c r="B115" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -5162,7 +5218,7 @@
         <v>185</v>
       </c>
       <c r="B116" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -5170,7 +5226,7 @@
         <v>367</v>
       </c>
       <c r="B117" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -5178,7 +5234,7 @@
         <v>368</v>
       </c>
       <c r="B118" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -5186,7 +5242,7 @@
         <v>369</v>
       </c>
       <c r="B119" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -5194,7 +5250,7 @@
         <v>370</v>
       </c>
       <c r="B120" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -5202,7 +5258,7 @@
         <v>371</v>
       </c>
       <c r="B121" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -5210,7 +5266,7 @@
         <v>372</v>
       </c>
       <c r="B122" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -5218,7 +5274,7 @@
         <v>373</v>
       </c>
       <c r="B123" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -5226,7 +5282,7 @@
         <v>374</v>
       </c>
       <c r="B124" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -5234,14 +5290,14 @@
         <v>375</v>
       </c>
       <c r="B125" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="4" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5250,7 +5306,7 @@
         <v>377</v>
       </c>
       <c r="B127" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -5258,7 +5314,7 @@
         <v>378</v>
       </c>
       <c r="B128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -5266,7 +5322,7 @@
         <v>379</v>
       </c>
       <c r="B129" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -5274,7 +5330,7 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -5282,7 +5338,7 @@
         <v>380</v>
       </c>
       <c r="B131" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -5290,7 +5346,7 @@
         <v>381</v>
       </c>
       <c r="B132" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -5298,7 +5354,7 @@
         <v>382</v>
       </c>
       <c r="B133" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -5314,7 +5370,7 @@
         <v>384</v>
       </c>
       <c r="B135" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -5322,7 +5378,7 @@
         <v>385</v>
       </c>
       <c r="B136" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -5330,7 +5386,7 @@
         <v>386</v>
       </c>
       <c r="B137" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -5338,7 +5394,7 @@
         <v>387</v>
       </c>
       <c r="B138" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -5346,7 +5402,7 @@
         <v>388</v>
       </c>
       <c r="B139" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -5354,7 +5410,7 @@
         <v>389</v>
       </c>
       <c r="B140" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -5362,7 +5418,7 @@
         <v>390</v>
       </c>
       <c r="B141" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -5370,7 +5426,7 @@
         <v>391</v>
       </c>
       <c r="B142" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -5378,7 +5434,7 @@
         <v>392</v>
       </c>
       <c r="B143" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -5386,7 +5442,7 @@
         <v>393</v>
       </c>
       <c r="B144" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -5394,7 +5450,7 @@
         <v>394</v>
       </c>
       <c r="B145" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -5402,7 +5458,7 @@
         <v>395</v>
       </c>
       <c r="B146" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -5410,7 +5466,7 @@
         <v>26</v>
       </c>
       <c r="B147" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -5418,7 +5474,7 @@
         <v>396</v>
       </c>
       <c r="B148" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -5426,7 +5482,7 @@
         <v>397</v>
       </c>
       <c r="B149" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -5434,7 +5490,7 @@
         <v>398</v>
       </c>
       <c r="B150" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -5442,7 +5498,7 @@
         <v>26</v>
       </c>
       <c r="B151" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -5450,7 +5506,7 @@
         <v>399</v>
       </c>
       <c r="B152" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -5458,7 +5514,7 @@
         <v>83</v>
       </c>
       <c r="B153" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -5466,7 +5522,7 @@
         <v>26</v>
       </c>
       <c r="B154" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -5482,7 +5538,7 @@
         <v>367</v>
       </c>
       <c r="B156" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -5490,7 +5546,7 @@
         <v>400</v>
       </c>
       <c r="B157" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -5506,7 +5562,7 @@
         <v>402</v>
       </c>
       <c r="B159" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -5514,7 +5570,7 @@
         <v>403</v>
       </c>
       <c r="B160" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -5522,7 +5578,7 @@
         <v>404</v>
       </c>
       <c r="B161" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -5530,7 +5586,7 @@
         <v>392</v>
       </c>
       <c r="B162" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -5538,7 +5594,7 @@
         <v>87</v>
       </c>
       <c r="B163" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -5546,7 +5602,7 @@
         <v>405</v>
       </c>
       <c r="B164" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -5554,7 +5610,7 @@
         <v>406</v>
       </c>
       <c r="B165" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -5562,7 +5618,7 @@
         <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -5570,7 +5626,7 @@
         <v>407</v>
       </c>
       <c r="B167" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -5578,7 +5634,7 @@
         <v>35</v>
       </c>
       <c r="B168" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -5586,7 +5642,7 @@
         <v>26</v>
       </c>
       <c r="B169" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -5594,7 +5650,7 @@
         <v>408</v>
       </c>
       <c r="B170" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -5610,7 +5666,7 @@
         <v>26</v>
       </c>
       <c r="B172" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -5618,7 +5674,7 @@
         <v>24</v>
       </c>
       <c r="B173" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -5626,14 +5682,14 @@
         <v>410</v>
       </c>
       <c r="B174" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="4" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5650,12 +5706,12 @@
         <v>413</v>
       </c>
       <c r="B177" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>414</v>
+        <v>47</v>
       </c>
       <c r="B178" t="s">
         <v>435</v>
@@ -5663,10 +5719,10 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B179" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -5674,36 +5730,36 @@
         <v>26</v>
       </c>
       <c r="B180" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B181" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B182" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B183" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B184" t="s">
         <v>435</v>
@@ -5711,39 +5767,39 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B185" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B186" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B187" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B188" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B189" t="s">
         <v>435</v>
@@ -5751,10 +5807,10 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B190" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -5762,31 +5818,31 @@
         <v>26</v>
       </c>
       <c r="B191" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B192" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B193" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B194" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -5794,20 +5850,20 @@
         <v>26</v>
       </c>
       <c r="B195" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B196" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B197" t="s">
         <v>435</v>
@@ -5818,12 +5874,12 @@
         <v>35</v>
       </c>
       <c r="B198" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B199" t="s">
         <v>435</v>
@@ -5831,18 +5887,18 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B200" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B201" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
